--- a/RUDN/Importance/Varible_muatal_class_in_South-Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_South-Eastern Asia.xlsx
@@ -14,7 +14,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="481">
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
   <si>
     <t>Female population 00-04</t>
   </si>
@@ -22,66 +58,30 @@
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
     <t>Population, male</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
     <t>Population, total</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
@@ -247,66 +247,66 @@
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
@@ -373,72 +373,72 @@
     <t>Number of under-five deaths</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
@@ -454,1000 +454,1009 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
+    <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
+    <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
     <t>School enrollment, primary (% net)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
     <t>Literacy rate, adult female (% of females ages 15 and above)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
     <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
   </si>
   <si>
     <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Rural poverty gap at national poverty lines (%)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
+    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Community health workers (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Community health workers (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B479"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1981,7 +1990,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9455132037878198</v>
+        <v>0.9426642009388169</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2437,7 +2446,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.8624113578654611</v>
+        <v>0.8622540839902384</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2445,7 +2454,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8622540839902384</v>
+        <v>0.8621662089023636</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2453,7 +2462,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.8621662089023636</v>
+        <v>0.8607518824880371</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2461,7 +2470,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.8607518824880371</v>
+        <v>0.8599074515154008</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2469,7 +2478,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8599074515154008</v>
+        <v>0.8590597474625687</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2477,7 +2486,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8590597474625687</v>
+        <v>0.8576901531442565</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2485,7 +2494,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.854681314879008</v>
+        <v>0.8560011014552047</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2493,7 +2502,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.8533618603544253</v>
+        <v>0.854681314879008</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2517,7 +2526,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8498483474628316</v>
+        <v>0.8493033763660665</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2525,7 +2534,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8493033763660665</v>
+        <v>0.8469993446138289</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2541,7 +2550,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.8454394408935442</v>
+        <v>0.8453164869244363</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2549,7 +2558,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8453164869244363</v>
+        <v>0.8451474927619769</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2573,7 +2582,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8429842081289152</v>
+        <v>0.843404438858542</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2589,7 +2598,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.8417897394042235</v>
+        <v>0.8429842081289152</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2773,7 +2782,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.7926669759415921</v>
+        <v>0.7928518702768794</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2789,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.7904893230425372</v>
+        <v>0.7878915172396033</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2869,7 +2878,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.774834948624</v>
+        <v>0.7739196646454596</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2877,7 +2886,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.7739196646454596</v>
+        <v>0.7682385926986102</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2893,7 +2902,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.7682385926986102</v>
+        <v>0.768196693137976</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2901,7 +2910,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.768196693137976</v>
+        <v>0.7681351998132746</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2909,7 +2918,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.7681351998132746</v>
+        <v>0.7680029647391191</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2917,7 +2926,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.7680029647391191</v>
+        <v>0.7671986034876548</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2933,7 +2942,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.7657750407163235</v>
+        <v>0.7663584079663572</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2941,7 +2950,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.7614748976718366</v>
+        <v>0.7657750407163235</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2989,7 +2998,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.7493156928467191</v>
+        <v>0.7521554505520271</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2997,7 +3006,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.7455837063420487</v>
+        <v>0.7493156928467191</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3005,7 +3014,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.74503294342952</v>
+        <v>0.7455837063420487</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3013,7 +3022,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.7411974823414351</v>
+        <v>0.7439727689140518</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3021,7 +3030,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.7411101993848155</v>
+        <v>0.7411974823414351</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3037,7 +3046,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.7299829971474971</v>
+        <v>0.730966022573972</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3053,7 +3062,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.7243601325326858</v>
+        <v>0.7299829971474971</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3069,7 +3078,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.7200072282818442</v>
+        <v>0.7235171616174756</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3077,7 +3086,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.7195670295630927</v>
+        <v>0.7200072282818442</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3117,7 +3126,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.7127699261727474</v>
+        <v>0.7127804387012653</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3125,7 +3134,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.709230228760501</v>
+        <v>0.7079438880133757</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3133,7 +3142,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.7088150254229748</v>
+        <v>0.7074293536810732</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3141,7 +3150,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.7079438880133757</v>
+        <v>0.7071938071350901</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3149,7 +3158,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.7071938071350901</v>
+        <v>0.7056107001409722</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3157,7 +3166,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.7056107001409722</v>
+        <v>0.6996864375201532</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3165,7 +3174,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6996864375201532</v>
+        <v>0.6931740187563271</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3173,7 +3182,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.6933148305117485</v>
+        <v>0.6898084147496975</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3181,7 +3190,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.6894443634626146</v>
+        <v>0.6870616565919287</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3189,7 +3198,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.6880605302013558</v>
+        <v>0.6870037170732048</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3197,7 +3206,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.6837777170523329</v>
+        <v>0.6830779722356748</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3205,7 +3214,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6764513979047471</v>
+        <v>0.6763820530980633</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3213,7 +3222,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.6731392521848307</v>
+        <v>0.6732876806392654</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3221,7 +3230,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.6725127474540302</v>
+        <v>0.6731392521848307</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3229,7 +3238,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.6672250965073911</v>
+        <v>0.6715971744230724</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3237,7 +3246,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.6614447367819472</v>
+        <v>0.6705539585468305</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3245,7 +3254,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.6572880032568871</v>
+        <v>0.6672250965073911</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3253,7 +3262,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.6569604222863201</v>
+        <v>0.6661905311476941</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3261,7 +3270,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6546853948951334</v>
+        <v>0.6631276068963996</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3269,7 +3278,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.6545143631794172</v>
+        <v>0.6619753486120208</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3277,7 +3286,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.652781362979056</v>
+        <v>0.6614447367819472</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3285,7 +3294,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.6518301881652317</v>
+        <v>0.6601272934019096</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3293,7 +3302,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.6477199074543407</v>
+        <v>0.6569604222863201</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3301,7 +3310,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.6471380301316352</v>
+        <v>0.6566079714903119</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3309,7 +3318,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.6470124479212918</v>
+        <v>0.6553486268831517</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3317,7 +3326,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.6442516176247446</v>
+        <v>0.6534179131523465</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3325,7 +3334,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.6437470641117311</v>
+        <v>0.6482894398973895</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3333,7 +3342,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.6437293039269969</v>
+        <v>0.6469717478805919</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3341,7 +3350,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.6422031372539814</v>
+        <v>0.6461321824672259</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3349,7 +3358,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.6420164035389337</v>
+        <v>0.6447670432246451</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3357,7 +3366,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.6418084496403702</v>
+        <v>0.6440847301796062</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3365,7 +3374,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.6403939587003733</v>
+        <v>0.6437293039269969</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3373,7 +3382,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.6387918338739513</v>
+        <v>0.6431079280623175</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3381,7 +3390,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.6377609194115408</v>
+        <v>0.6420164035389337</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3389,7 +3398,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.6366438917133794</v>
+        <v>0.6418084496403702</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3397,7 +3406,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.6365314011753995</v>
+        <v>0.6416911848189519</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3405,7 +3414,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.6358273969034194</v>
+        <v>0.6416408367229542</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3413,7 +3422,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.6323566072978901</v>
+        <v>0.6381376005969519</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3421,7 +3430,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.6321416778916307</v>
+        <v>0.6349344900039777</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3429,7 +3438,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.6311426977506471</v>
+        <v>0.6323566072978901</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3437,7 +3446,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.6277571943651439</v>
+        <v>0.6321416778916307</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3445,7 +3454,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.62630849044899</v>
+        <v>0.6311426977506471</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3453,7 +3462,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.6255695671775168</v>
+        <v>0.6295469709688637</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3461,7 +3470,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.6249401760831339</v>
+        <v>0.6281243108075247</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3469,7 +3478,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.6224498178057671</v>
+        <v>0.62630849044899</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3477,7 +3486,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.6219384270259833</v>
+        <v>0.6255695671775168</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3485,7 +3494,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.6208698858129633</v>
+        <v>0.6252117401956947</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3493,7 +3502,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.6172855962099841</v>
+        <v>0.6249401760831339</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3501,7 +3510,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.6166092229180931</v>
+        <v>0.6227143069635686</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3509,7 +3518,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.6156953957648834</v>
+        <v>0.619458225767096</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3517,7 +3526,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.6144651187238976</v>
+        <v>0.6183219614497288</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3525,7 +3534,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.6094662260741754</v>
+        <v>0.6156953957648834</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3533,7 +3542,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.6080945531862743</v>
+        <v>0.6144651187238976</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3541,7 +3550,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.6080890962902878</v>
+        <v>0.6122030307944664</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3549,7 +3558,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6069560196377597</v>
+        <v>0.6117660571220065</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3557,7 +3566,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.6057591001294824</v>
+        <v>0.6094662260741754</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3565,7 +3574,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.6043820177848389</v>
+        <v>0.6057591001294824</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3573,7 +3582,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.6037127103020159</v>
+        <v>0.6022687710399339</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3589,7 +3598,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.6016080500402519</v>
+        <v>0.6002285622066479</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3605,7 +3614,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.593231452707744</v>
+        <v>0.5953358797917321</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3613,7 +3622,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5925617392978937</v>
+        <v>0.5952384190103888</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3621,7 +3630,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.5924300808329019</v>
+        <v>0.5923204181805701</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3629,7 +3638,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.5923204181805701</v>
+        <v>0.5906206227748723</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3637,7 +3646,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.589424788196758</v>
+        <v>0.5892374045633026</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3645,7 +3654,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.5890874570315374</v>
+        <v>0.5875688926383802</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3653,7 +3662,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.5875688926383802</v>
+        <v>0.5872954006982218</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3669,7 +3678,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.5829845845661388</v>
+        <v>0.5831765548703609</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3677,7 +3686,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.5824915100159622</v>
+        <v>0.5812757388855283</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3685,7 +3694,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.581792205991648</v>
+        <v>0.5791631076490982</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3693,7 +3702,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.5780129307961601</v>
+        <v>0.5783861142575788</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3717,7 +3726,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.5705924141827068</v>
+        <v>0.5726870576831207</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3725,7 +3734,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.5680498314526525</v>
+        <v>0.5689691765223905</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3741,7 +3750,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5666932936180626</v>
+        <v>0.5666903108346009</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3749,7 +3758,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.5666876659206537</v>
+        <v>0.5658428741174899</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3757,7 +3766,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.5658428741174899</v>
+        <v>0.564346182562719</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3765,7 +3774,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5657706839872205</v>
+        <v>0.5637924571627309</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3773,7 +3782,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.5637924571627309</v>
+        <v>0.5593629114674077</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3781,7 +3790,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.5615882858081664</v>
+        <v>0.5587926940982597</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3789,7 +3798,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.5605008989037201</v>
+        <v>0.5583858298076281</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3797,7 +3806,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.5594461378326852</v>
+        <v>0.5583858298076281</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3805,7 +3814,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.5587926940982597</v>
+        <v>0.556987431843377</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3813,7 +3822,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.5583858298076281</v>
+        <v>0.5562899635226648</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3821,7 +3830,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.5583858298076281</v>
+        <v>0.552033090553866</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3829,7 +3838,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.5570022142349154</v>
+        <v>0.5508991292856769</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3837,7 +3846,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.5552916341167782</v>
+        <v>0.5479851145930641</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3845,7 +3854,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.5513073354005222</v>
+        <v>0.5443703401053483</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3853,7 +3862,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.5509168760933341</v>
+        <v>0.5435386443987968</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3861,7 +3870,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.5492471608243574</v>
+        <v>0.5375725722688824</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3869,7 +3878,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.5466135435194035</v>
+        <v>0.537546075948897</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3877,7 +3886,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.5413175287192034</v>
+        <v>0.5358616426706462</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3885,7 +3894,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.53796981994983</v>
+        <v>0.534516484457767</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3893,7 +3902,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5377884886436792</v>
+        <v>0.5336924645627381</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3901,7 +3910,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.5339599422345582</v>
+        <v>0.5317361451389662</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3909,7 +3918,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.5336924645627381</v>
+        <v>0.5303908309276379</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3917,7 +3926,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.5327512049676326</v>
+        <v>0.5261319176971977</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3925,7 +3934,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.5317361451389662</v>
+        <v>0.5234983336253807</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3933,7 +3942,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5310307238702614</v>
+        <v>0.5234983336253805</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3941,7 +3950,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.5303908309276379</v>
+        <v>0.5226841689104884</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3949,7 +3958,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.5289116023692042</v>
+        <v>0.5216965226173493</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3957,7 +3966,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.5261319176971977</v>
+        <v>0.5160160344576243</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3965,7 +3974,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.5219419567977064</v>
+        <v>0.5131587339111672</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3973,7 +3982,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.5202720211928478</v>
+        <v>0.512240431591747</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3981,7 +3990,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.5160077367601701</v>
+        <v>0.5099324265403757</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3989,7 +3998,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.5146737653321916</v>
+        <v>0.5081103526029174</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3997,7 +4006,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.5142390743661214</v>
+        <v>0.5056156888368799</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4005,7 +4014,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.5139944139356964</v>
+        <v>0.5034755668736548</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4013,7 +4022,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.5092533193803663</v>
+        <v>0.5033726965019667</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4021,7 +4030,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.5078075184640214</v>
+        <v>0.4987430668723369</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4029,7 +4038,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.5077490711471591</v>
+        <v>0.4981748589252777</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4037,7 +4046,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.5034789367001278</v>
+        <v>0.4966406823736249</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4045,7 +4054,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.5033726965019667</v>
+        <v>0.4959673531008244</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4053,7 +4062,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.5026456118665599</v>
+        <v>0.4908672121189315</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4061,7 +4070,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4987430668723369</v>
+        <v>0.4886290350823841</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4069,7 +4078,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.4900695733441895</v>
+        <v>0.4883714433728625</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4085,7 +4094,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4883714433728625</v>
+        <v>0.4875005780248065</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4093,7 +4102,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4875005780248065</v>
+        <v>0.4866054934647319</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4101,7 +4110,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.4866054934647319</v>
+        <v>0.4859622609035437</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4109,7 +4118,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.485027478357871</v>
+        <v>0.4828163238629894</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4117,7 +4126,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4834631539916796</v>
+        <v>0.4784978460521274</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4125,7 +4134,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.4828163238629894</v>
+        <v>0.4756181517782492</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4133,7 +4142,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.4808076460662118</v>
+        <v>0.4745021013962449</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4141,7 +4150,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.4805914732363761</v>
+        <v>0.4738647277265866</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4149,7 +4158,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4804890269423761</v>
+        <v>0.4727820413130677</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4157,7 +4166,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.4726370855773034</v>
+        <v>0.4715649857872548</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4165,7 +4174,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.4694204930797243</v>
+        <v>0.4693456510569041</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4173,7 +4182,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.4693456510569041</v>
+        <v>0.4693133435392474</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4181,7 +4190,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.4690007880984866</v>
+        <v>0.4692284287601396</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4189,7 +4198,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.4683898351208984</v>
+        <v>0.4687378353226193</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4197,7 +4206,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.4659941082807906</v>
+        <v>0.465010031292217</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4205,7 +4214,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.4653092670172063</v>
+        <v>0.4646188102504587</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4213,7 +4222,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.461523183975779</v>
+        <v>0.4640129652113425</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4221,7 +4230,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.4569743174181697</v>
+        <v>0.4638326666158958</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4229,7 +4238,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.4533174885691986</v>
+        <v>0.4621379370792196</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4237,7 +4246,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.4529310849755475</v>
+        <v>0.4609316346916006</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4245,7 +4254,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.4512282928380369</v>
+        <v>0.4607460247349935</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4253,7 +4262,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.446659925056148</v>
+        <v>0.4569743174181697</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4261,7 +4270,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.4461278878874666</v>
+        <v>0.4529310849755475</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4269,7 +4278,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.4444972956956734</v>
+        <v>0.4524887541966933</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4277,7 +4286,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.4442986781594418</v>
+        <v>0.452371592306277</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4285,7 +4294,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.4433541052424061</v>
+        <v>0.4503883901272798</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4293,7 +4302,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.4419159190399187</v>
+        <v>0.4495838482430794</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4301,7 +4310,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.4415656520229847</v>
+        <v>0.4491895770694923</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4309,7 +4318,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.4393086218142057</v>
+        <v>0.4477384085027736</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4317,7 +4326,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.4372954244161942</v>
+        <v>0.4446006170274208</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4325,7 +4334,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.4318239477601187</v>
+        <v>0.4438839552406542</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4333,7 +4342,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.4314681247065473</v>
+        <v>0.4393086218142057</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4341,7 +4350,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.4291518968007686</v>
+        <v>0.4371826691752341</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4349,7 +4358,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.4278363361817263</v>
+        <v>0.4363093502983191</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4357,7 +4366,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.4274004313472908</v>
+        <v>0.4361550689655793</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4365,7 +4374,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.4273344770526371</v>
+        <v>0.4338696905712383</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4373,7 +4382,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.4215034765729644</v>
+        <v>0.4314681247065473</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4381,7 +4390,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.4204581784266066</v>
+        <v>0.4313173193020807</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4389,7 +4398,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.4177557430969228</v>
+        <v>0.4291518968007686</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4397,7 +4406,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.4167685887200869</v>
+        <v>0.4274004313472908</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4405,7 +4414,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.4161094175097806</v>
+        <v>0.4233173562857846</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4413,7 +4422,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.4156486500404661</v>
+        <v>0.4227494103808294</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4421,7 +4430,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.4143729646347603</v>
+        <v>0.4226716578693508</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4429,7 +4438,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.4124148710136961</v>
+        <v>0.4215034765729644</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4437,7 +4446,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.4122702186421161</v>
+        <v>0.4203733389043651</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4445,7 +4454,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.4118049880033658</v>
+        <v>0.4178681905182531</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4453,7 +4462,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.4099082891271979</v>
+        <v>0.4166548357720097</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4461,7 +4470,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.4087276784087801</v>
+        <v>0.4161094175097806</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4469,7 +4478,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.4060910448051893</v>
+        <v>0.4156486500404661</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4477,7 +4486,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.40547567779798</v>
+        <v>0.4127608743156288</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4485,7 +4494,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.4049253573563891</v>
+        <v>0.4098849639128577</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4493,7 +4502,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.4028539168428855</v>
+        <v>0.4085058972292313</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4501,7 +4510,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.4020730531550483</v>
+        <v>0.4070914409522048</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4509,7 +4518,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.4013029623775897</v>
+        <v>0.4060910448051893</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4517,7 +4526,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.3989831431551951</v>
+        <v>0.4027239128960762</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4525,7 +4534,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.397229755509402</v>
+        <v>0.4020730531550483</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4533,7 +4542,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.3966168331715878</v>
+        <v>0.4013029623775897</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4541,7 +4550,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.395902558023328</v>
+        <v>0.4000014987454992</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4549,7 +4558,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.3942590138055955</v>
+        <v>0.3994597280146954</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4557,7 +4566,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.3879933779895737</v>
+        <v>0.3980593880098953</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4565,7 +4574,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.3876347302792285</v>
+        <v>0.397229755509402</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4573,7 +4582,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.3859527170631272</v>
+        <v>0.3944036343998301</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4581,7 +4590,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.3795311801134884</v>
+        <v>0.3914244946459158</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4589,7 +4598,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.3741208259851856</v>
+        <v>0.389878155962009</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4597,7 +4606,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.3718803557411194</v>
+        <v>0.3860979924700683</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4605,7 +4614,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.3700435251880232</v>
+        <v>0.3859527170631272</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4613,7 +4622,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.3665588265957667</v>
+        <v>0.3811669577485119</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4621,7 +4630,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.3609702230454912</v>
+        <v>0.3802997219826816</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4629,7 +4638,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.360145485672916</v>
+        <v>0.37419439972183</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4637,7 +4646,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.3593932974074074</v>
+        <v>0.3739195795752153</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4645,7 +4654,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.3569256283027475</v>
+        <v>0.3716485934489757</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4653,7 +4662,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.3557887410506615</v>
+        <v>0.3711276855670556</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4661,7 +4670,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.3528767175992971</v>
+        <v>0.3705976414058028</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4669,7 +4678,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.3524199806414017</v>
+        <v>0.3667390226862475</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4677,7 +4686,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.3504076926017896</v>
+        <v>0.3665588265957667</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4685,7 +4694,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.3495272184506546</v>
+        <v>0.3662971646735902</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4693,7 +4702,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.3491689700185965</v>
+        <v>0.3609702230454912</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4701,7 +4710,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.3469609149260713</v>
+        <v>0.3593932974074074</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4709,7 +4718,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.3445397470451326</v>
+        <v>0.3495272184506546</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4717,7 +4726,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.3408397211825496</v>
+        <v>0.3494489907676364</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4725,7 +4734,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.3385378535892989</v>
+        <v>0.3368539995008293</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4733,7 +4742,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.337832669105756</v>
+        <v>0.3337557070559032</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4741,7 +4750,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.3355195457935856</v>
+        <v>0.3324464479129121</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4749,7 +4758,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.3324464479129121</v>
+        <v>0.3286922750979937</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4757,7 +4766,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.3319745825020126</v>
+        <v>0.3274600396682696</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4765,7 +4774,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.3293848312803997</v>
+        <v>0.3241598663539633</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4773,7 +4782,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.3288437627045264</v>
+        <v>0.3228486105106525</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4781,7 +4790,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.3286922750979937</v>
+        <v>0.320962080352263</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4789,7 +4798,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.3282878371486009</v>
+        <v>0.3196718160934806</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4797,7 +4806,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.3274600396682696</v>
+        <v>0.3142776451489799</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4805,7 +4814,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.3205789980295051</v>
+        <v>0.3138661934178177</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4813,7 +4822,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.3196718160934806</v>
+        <v>0.3130273573322959</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4821,7 +4830,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.3142776451489799</v>
+        <v>0.312765537136247</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4829,7 +4838,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.3131425979912996</v>
+        <v>0.311477475440946</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4837,7 +4846,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.3130944527998623</v>
+        <v>0.3087785724547345</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4845,7 +4854,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.312765537136247</v>
+        <v>0.3086406636297749</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4853,7 +4862,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.3108202784795058</v>
+        <v>0.3083853663831999</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4861,7 +4870,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.3086113740016729</v>
+        <v>0.3060771165283898</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4869,7 +4878,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.3074314204264503</v>
+        <v>0.2974349232174081</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4877,7 +4886,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.3039891761629347</v>
+        <v>0.2959591478939607</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4885,7 +4894,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.299576378803535</v>
+        <v>0.2955272546324406</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4893,7 +4902,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.2944571749458995</v>
+        <v>0.2919870863208225</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4901,7 +4910,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.2941340776845072</v>
+        <v>0.2895710980457162</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4909,7 +4918,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.2919870863208225</v>
+        <v>0.2894721581530675</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4917,7 +4926,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.291293847420053</v>
+        <v>0.2876280204883959</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4925,7 +4934,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.2882065217313439</v>
+        <v>0.2864360155439651</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4933,7 +4942,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.2880135574853682</v>
+        <v>0.2816761404310297</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4941,7 +4950,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.2878427892175568</v>
+        <v>0.2814144257568012</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4949,7 +4958,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.2861153222318851</v>
+        <v>0.2801688628035144</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4957,7 +4966,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.2833841232971295</v>
+        <v>0.2757696399631944</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4965,7 +4974,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.2749769854951913</v>
+        <v>0.2750386409506869</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4981,7 +4990,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.2742788581423408</v>
+        <v>0.2739823257643681</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4989,7 +4998,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.2728047032345562</v>
+        <v>0.2721075403954976</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4997,7 +5006,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.2716109256335371</v>
+        <v>0.272032215237767</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5005,7 +5014,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.2713447730696299</v>
+        <v>0.2716109256335371</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5013,7 +5022,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.2707430764435372</v>
+        <v>0.271386535791809</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5021,7 +5030,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.2658713997524977</v>
+        <v>0.2707430764435372</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5029,7 +5038,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.2657686278284346</v>
+        <v>0.2707083693144037</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5037,7 +5046,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.2593663274923661</v>
+        <v>0.2668164459994056</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5045,7 +5054,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.2582896740958451</v>
+        <v>0.2666323505479922</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5053,7 +5062,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.2558864413064004</v>
+        <v>0.2663076015620836</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5061,7 +5070,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.2541414468645335</v>
+        <v>0.2657686278284346</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5069,7 +5078,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.251927490972935</v>
+        <v>0.2641388804055629</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5077,7 +5086,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.2495687866363769</v>
+        <v>0.2627368117085571</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5085,7 +5094,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.2466030135737678</v>
+        <v>0.2594372195462096</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5093,7 +5102,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.2452468842186823</v>
+        <v>0.2577178832085629</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5101,7 +5110,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.2441208476295478</v>
+        <v>0.2541414468645335</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5109,7 +5118,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.2412902638728631</v>
+        <v>0.2532371101618049</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5117,7 +5126,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.2385334771337662</v>
+        <v>0.2513124368356734</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5125,7 +5134,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.2368638272974817</v>
+        <v>0.2496699813000538</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5133,7 +5142,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.2323172653005243</v>
+        <v>0.2462262852152537</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5141,7 +5150,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.2322004085507396</v>
+        <v>0.2451043522046732</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5149,7 +5158,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.2302710824444467</v>
+        <v>0.2449224100064162</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5157,7 +5166,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.2285238905623437</v>
+        <v>0.24452335559853</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5165,7 +5174,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.2220276954713987</v>
+        <v>0.2415103817539628</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5173,7 +5182,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.2193927928029715</v>
+        <v>0.2412902638728631</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5181,7 +5190,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.2189957514204137</v>
+        <v>0.2405701890424974</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5189,7 +5198,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.2185852555788035</v>
+        <v>0.2403298273902545</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5197,7 +5206,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.2183739742952444</v>
+        <v>0.2365487228218024</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5205,7 +5214,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.2176513721572781</v>
+        <v>0.2323172653005243</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5213,7 +5222,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.2164790189797938</v>
+        <v>0.2303892107975507</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5221,7 +5230,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.2153438962456953</v>
+        <v>0.2252140242404843</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5229,7 +5238,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.2153198629494872</v>
+        <v>0.2249410299301415</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5237,7 +5246,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.2144794557242233</v>
+        <v>0.2235221140881485</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5245,7 +5254,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.2134531598246594</v>
+        <v>0.2234680275176999</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5253,7 +5262,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.2108256577592393</v>
+        <v>0.2217410509586293</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5261,7 +5270,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.2086739860047298</v>
+        <v>0.2188912671078036</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5269,7 +5278,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.2069411192175821</v>
+        <v>0.2144794557242233</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5277,7 +5286,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.1988571023617336</v>
+        <v>0.2131297182428065</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5285,7 +5294,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.1946711454935903</v>
+        <v>0.2086739860047298</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5293,7 +5302,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.1932873727108728</v>
+        <v>0.2035644435824939</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5301,7 +5310,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.191581751711084</v>
+        <v>0.2019293421203683</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5309,7 +5318,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.1909421806143452</v>
+        <v>0.2011210608733713</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5317,7 +5326,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.1878994928831006</v>
+        <v>0.2006288236918965</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5325,7 +5334,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.1860792889041942</v>
+        <v>0.1995095783185625</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5333,7 +5342,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.1844600524254676</v>
+        <v>0.1988571023617336</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5341,7 +5350,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.1819317639474909</v>
+        <v>0.1951179449494715</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5349,7 +5358,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.1804794628719244</v>
+        <v>0.1944045948858111</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5357,7 +5366,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.1799685040019461</v>
+        <v>0.193553884870753</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5365,7 +5374,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.1763648166085672</v>
+        <v>0.1933688143551897</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5373,7 +5382,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.1745463089286348</v>
+        <v>0.1833647377331875</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5381,7 +5390,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.1737743503559046</v>
+        <v>0.1784989696206918</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5389,7 +5398,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.1721954353481965</v>
+        <v>0.176408739537987</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5397,7 +5406,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.1676615647559392</v>
+        <v>0.1759659959021875</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5405,7 +5414,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.1672255788201105</v>
+        <v>0.1755086958326177</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5413,7 +5422,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.1660360404030219</v>
+        <v>0.1720218141946395</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5421,7 +5430,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.1639785480241263</v>
+        <v>0.1718472697557196</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5429,7 +5438,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.158663149900456</v>
+        <v>0.1676615647559392</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5437,7 +5446,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.1513660445419867</v>
+        <v>0.1628729128894806</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5445,7 +5454,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.1464424494816428</v>
+        <v>0.1612211917709523</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5453,7 +5462,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.1445199039981191</v>
+        <v>0.1611426433698411</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5461,7 +5470,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.1439299338269333</v>
+        <v>0.1578870290575725</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5469,7 +5478,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.1420293297253499</v>
+        <v>0.1541549191166431</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5477,7 +5486,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.1417636958489739</v>
+        <v>0.1541249936193561</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5485,7 +5494,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.1415932576366572</v>
+        <v>0.1513660445419867</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5493,7 +5502,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.1395862263404228</v>
+        <v>0.1458740180870377</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5501,7 +5510,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.1388671169822195</v>
+        <v>0.1458580727364052</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5509,7 +5518,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.1303080067355622</v>
+        <v>0.1418076362270408</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5517,7 +5526,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.1300364408092356</v>
+        <v>0.1417636958489739</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5525,7 +5534,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.1297537899482533</v>
+        <v>0.1287182170699872</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5533,7 +5542,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.1291634329508693</v>
+        <v>0.1280833209676786</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5541,7 +5550,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.1195111813908221</v>
+        <v>0.1277441367461718</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5549,7 +5558,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.113121539110802</v>
+        <v>0.1270239099729225</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5557,7 +5566,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.112699349857827</v>
+        <v>0.1258128077570737</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5565,7 +5574,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.109761519500392</v>
+        <v>0.1241873795137007</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5573,7 +5582,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.1061956935299522</v>
+        <v>0.123060650335717</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5581,7 +5590,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.1053312466186829</v>
+        <v>0.1217662005536368</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5589,7 +5598,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.09609199298231141</v>
+        <v>0.107533471234553</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5597,7 +5606,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.09564917875202816</v>
+        <v>0.1038323647575594</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5605,7 +5614,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.0935201417735223</v>
+        <v>0.09955687538502889</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5613,7 +5622,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.09174175202709645</v>
+        <v>0.08650001392096129</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5621,7 +5630,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.09168475856559044</v>
+        <v>0.07742551987105828</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5629,7 +5638,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.03812327780035596</v>
+        <v>0.06477629316184808</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5637,7 +5646,31 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.01972416245569453</v>
+        <v>0.04639793885604515</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>0.04418237073724152</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>0.04174842933592404</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>0.01754742196977266</v>
       </c>
     </row>
   </sheetData>
